--- a/output/1Y_P50_KFSDIV.xlsx
+++ b/output/1Y_P50_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>16.8894</v>
       </c>
       <c r="C2" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D2" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>16.4004</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E3" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="F3" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="H3" s="1">
-        <v>9710.469300000001</v>
+        <v>9671.693300000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9710.469300000001</v>
+        <v>9671.693300000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.029</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>15.3877</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E4" s="1">
-        <v>1201.8286</v>
+        <v>1199.4253</v>
       </c>
       <c r="F4" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="H4" s="1">
-        <v>18493.3775</v>
+        <v>18419.4544</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18493.3775</v>
+        <v>18419.4544</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.6413</v>
+        <v>16.6747</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0617</v>
+        <v>-0.06370000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>14.6367</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E5" s="1">
-        <v>1851.6983</v>
+        <v>1847.9968</v>
       </c>
       <c r="F5" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="H5" s="1">
-        <v>27102.7521</v>
+        <v>26994.4287</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27102.7521</v>
+        <v>26994.4287</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.2013</v>
+        <v>16.2338</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0488</v>
+        <v>-0.0501</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,46 +921,46 @@
         <v>13.0061</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D6" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E6" s="1">
-        <v>2534.9124</v>
+        <v>2529.846</v>
       </c>
       <c r="F6" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="H6" s="1">
-        <v>32969.324</v>
+        <v>32837.654</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>32969.324</v>
+        <v>32837.654</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>15.7796</v>
+        <v>15.8112</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>833.2642</v>
+        <v>831.5986</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9166.7358</v>
+        <v>-9168.401400000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.1114</v>
+        <v>-0.1124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>13.835</v>
       </c>
       <c r="C7" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D7" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E7" s="1">
-        <v>3303.7824</v>
+        <v>3297.1761</v>
       </c>
       <c r="F7" s="1">
-        <v>731.4086</v>
+        <v>729.9299</v>
       </c>
       <c r="H7" s="1">
-        <v>45707.8292</v>
+        <v>45525.1002</v>
       </c>
       <c r="I7" s="1">
-        <v>833.2642</v>
+        <v>831.5986</v>
       </c>
       <c r="J7" s="1">
-        <v>46541.0934</v>
+        <v>46356.6988</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>15.1342</v>
+        <v>15.1645</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10119.0377</v>
+        <v>-10118.7998</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08309999999999999</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>14.4216</v>
       </c>
       <c r="C8" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D8" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E8" s="1">
-        <v>4035.191</v>
+        <v>4027.1061</v>
       </c>
       <c r="F8" s="1">
-        <v>701.6585</v>
+        <v>700.2387</v>
       </c>
       <c r="H8" s="1">
-        <v>58193.9099</v>
+        <v>57961.3325</v>
       </c>
       <c r="I8" s="1">
-        <v>714.2265</v>
+        <v>712.7988</v>
       </c>
       <c r="J8" s="1">
-        <v>58908.1364</v>
+        <v>58674.1313</v>
       </c>
       <c r="K8" s="1">
-        <v>60119.0377</v>
+        <v>60118.7998</v>
       </c>
       <c r="L8" s="1">
-        <v>14.8987</v>
+        <v>14.9285</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10119.0377</v>
+        <v>-10118.7998</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0419</v>
+        <v>0.0411</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,46 +1071,46 @@
         <v>13.2404</v>
       </c>
       <c r="C9" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D9" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E9" s="1">
-        <v>4736.8494</v>
+        <v>4727.3448</v>
       </c>
       <c r="F9" s="1">
-        <v>764.2547</v>
+        <v>762.7102</v>
       </c>
       <c r="H9" s="1">
-        <v>62717.7811</v>
+        <v>62466.6617</v>
       </c>
       <c r="I9" s="1">
-        <v>595.1887</v>
+        <v>593.999</v>
       </c>
       <c r="J9" s="1">
-        <v>63312.9699</v>
+        <v>63060.6607</v>
       </c>
       <c r="K9" s="1">
-        <v>70238.07550000001</v>
+        <v>70237.5996</v>
       </c>
       <c r="L9" s="1">
-        <v>14.828</v>
+        <v>14.8577</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1452.6687</v>
+        <v>1449.7582</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8666.369000000001</v>
+        <v>-8669.0416</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.08119999999999999</v>
+        <v>-0.08169999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.382</v>
       </c>
       <c r="C10" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D10" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E10" s="1">
-        <v>5501.1041</v>
+        <v>5490.055</v>
       </c>
       <c r="F10" s="1">
-        <v>846.568</v>
+        <v>844.798</v>
       </c>
       <c r="H10" s="1">
-        <v>68114.67110000001</v>
+        <v>67841.7077</v>
       </c>
       <c r="I10" s="1">
-        <v>1928.8197</v>
+        <v>1924.9574</v>
       </c>
       <c r="J10" s="1">
-        <v>70043.4908</v>
+        <v>69766.6651</v>
       </c>
       <c r="K10" s="1">
-        <v>80357.11320000001</v>
+        <v>80356.39939999999</v>
       </c>
       <c r="L10" s="1">
-        <v>14.6075</v>
+        <v>14.6367</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10482.2049</v>
+        <v>-10481.2393</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0446</v>
+        <v>-0.0451</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>11.9583</v>
       </c>
       <c r="C11" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D11" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E11" s="1">
-        <v>6347.6721</v>
+        <v>6334.853</v>
       </c>
       <c r="F11" s="1">
-        <v>876.5631</v>
+        <v>874.7268</v>
       </c>
       <c r="H11" s="1">
-        <v>75907.3674</v>
+        <v>75602.66929999999</v>
       </c>
       <c r="I11" s="1">
-        <v>1446.6148</v>
+        <v>1443.718</v>
       </c>
       <c r="J11" s="1">
-        <v>77353.9822</v>
+        <v>77046.3873</v>
       </c>
       <c r="K11" s="1">
-        <v>90839.31819999999</v>
+        <v>90837.6387</v>
       </c>
       <c r="L11" s="1">
-        <v>14.3107</v>
+        <v>14.3393</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-10482.2049</v>
+        <v>-10481.2393</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0336</v>
+        <v>-0.0341</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,46 +1221,46 @@
         <v>12.2036</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E12" s="1">
-        <v>7224.2352</v>
+        <v>7209.5798</v>
       </c>
       <c r="F12" s="1">
-        <v>858.9437</v>
+        <v>857.1437</v>
       </c>
       <c r="H12" s="1">
-        <v>88161.67720000001</v>
+        <v>87806.9143</v>
       </c>
       <c r="I12" s="1">
-        <v>964.4099</v>
+        <v>962.4787</v>
       </c>
       <c r="J12" s="1">
-        <v>89126.0871</v>
+        <v>88769.393</v>
       </c>
       <c r="K12" s="1">
-        <v>101321.5231</v>
+        <v>101318.8781</v>
       </c>
       <c r="L12" s="1">
-        <v>14.0252</v>
+        <v>14.0534</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2285.162</v>
+        <v>2280.5471</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-8197.043</v>
+        <v>-8200.692300000001</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0203</v>
+        <v>0.0198</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>12.9136</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E13" s="1">
-        <v>8083.1789</v>
+        <v>8066.7235</v>
       </c>
       <c r="F13" s="1">
-        <v>988.676</v>
+        <v>986.2658</v>
       </c>
       <c r="H13" s="1">
-        <v>104382.9392</v>
+        <v>103962.3196</v>
       </c>
       <c r="I13" s="1">
-        <v>2767.3669</v>
+        <v>2761.7864</v>
       </c>
       <c r="J13" s="1">
-        <v>107150.3061</v>
+        <v>106724.106</v>
       </c>
       <c r="K13" s="1">
-        <v>111803.728</v>
+        <v>111800.1174</v>
       </c>
       <c r="L13" s="1">
-        <v>13.8317</v>
+        <v>13.8594</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12767.3669</v>
+        <v>-12761.7864</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0809</v>
+        <v>0.0805</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>13.4338</v>
       </c>
       <c r="C14" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D14" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E14" s="1">
-        <v>9071.8549</v>
+        <v>9052.989299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9071.8549</v>
+        <v>-9052.989299999999</v>
       </c>
       <c r="H14" s="1">
-        <v>121869.485</v>
+        <v>121372.5229</v>
       </c>
       <c r="I14" s="1">
         <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121869.485</v>
+        <v>121372.5229</v>
       </c>
       <c r="K14" s="1">
-        <v>124571.0949</v>
+        <v>124561.9038</v>
       </c>
       <c r="L14" s="1">
-        <v>13.7316</v>
+        <v>13.7592</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121869.485</v>
+        <v>121372.5229</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>16.8894</v>
       </c>
       <c r="C2" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D2" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>16.4004</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E3" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="F3" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>9710.469300000001</v>
+        <v>9671.693300000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9710.469300000001</v>
+        <v>9671.693300000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.029</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>15.3877</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E4" s="1">
-        <v>1201.8286</v>
+        <v>1199.4253</v>
       </c>
       <c r="F4" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>18493.3775</v>
+        <v>18419.4544</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18493.3775</v>
+        <v>18419.4544</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.6413</v>
+        <v>16.6747</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0617</v>
+        <v>-0.06370000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>14.6367</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E5" s="1">
-        <v>1851.6983</v>
+        <v>1847.9968</v>
       </c>
       <c r="F5" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>27102.7521</v>
+        <v>26994.4287</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27102.7521</v>
+        <v>26994.4287</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.2013</v>
+        <v>16.2338</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0488</v>
+        <v>-0.0501</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,49 +1662,49 @@
         <v>13.0061</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D6" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E6" s="1">
-        <v>2534.9124</v>
+        <v>2529.846</v>
       </c>
       <c r="F6" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>32969.324</v>
+        <v>32837.654</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>32969.324</v>
+        <v>32837.654</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>15.7796</v>
+        <v>15.8112</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>833.2642</v>
+        <v>831.5986</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9166.7358</v>
+        <v>-9168.401400000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.1114</v>
+        <v>-0.1124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>13.835</v>
       </c>
       <c r="C7" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D7" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E7" s="1">
-        <v>3303.7824</v>
+        <v>3297.1761</v>
       </c>
       <c r="F7" s="1">
-        <v>783.0332</v>
+        <v>781.3484</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>45707.8292</v>
+        <v>45525.1002</v>
       </c>
       <c r="I7" s="1">
-        <v>833.2642</v>
+        <v>831.5986</v>
       </c>
       <c r="J7" s="1">
-        <v>46541.0934</v>
+        <v>46356.6988</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>15.1342</v>
+        <v>15.1645</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10833.2642</v>
+        <v>-10831.5986</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08309999999999999</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>14.4216</v>
       </c>
       <c r="C8" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D8" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E8" s="1">
-        <v>4086.8156</v>
+        <v>4078.5246</v>
       </c>
       <c r="F8" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>58938.4194</v>
+        <v>58701.3882</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58938.4194</v>
+        <v>58701.3882</v>
       </c>
       <c r="K8" s="1">
-        <v>60833.2642</v>
+        <v>60831.5986</v>
       </c>
       <c r="L8" s="1">
-        <v>14.8852</v>
+        <v>14.9151</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0424</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,49 +1821,49 @@
         <v>13.2404</v>
       </c>
       <c r="C9" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D9" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E9" s="1">
-        <v>4780.2199</v>
+        <v>4770.5421</v>
       </c>
       <c r="F9" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>63292.0237</v>
+        <v>63037.4667</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63292.0237</v>
+        <v>63037.4667</v>
       </c>
       <c r="K9" s="1">
-        <v>70833.26420000001</v>
+        <v>70831.5986</v>
       </c>
       <c r="L9" s="1">
-        <v>14.818</v>
+        <v>14.8477</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1471.2536</v>
+        <v>1468.2688</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8528.7464</v>
+        <v>-8531.7312</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0819</v>
+        <v>-0.0824</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.382</v>
       </c>
       <c r="C10" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D10" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E10" s="1">
-        <v>5535.4841</v>
+        <v>5524.2977</v>
       </c>
       <c r="F10" s="1">
-        <v>926.4459000000001</v>
+        <v>924.3535000000001</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>68540.36410000001</v>
+        <v>68264.8517</v>
       </c>
       <c r="I10" s="1">
-        <v>1471.2536</v>
+        <v>1468.2688</v>
       </c>
       <c r="J10" s="1">
-        <v>70011.6177</v>
+        <v>69733.12059999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80833.26420000001</v>
+        <v>80831.5986</v>
       </c>
       <c r="L10" s="1">
-        <v>14.6027</v>
+        <v>14.632</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11471.2536</v>
+        <v>-11468.2688</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0448</v>
+        <v>-0.0452</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>11.9583</v>
       </c>
       <c r="C11" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D11" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E11" s="1">
-        <v>6461.93</v>
+        <v>6448.6512</v>
       </c>
       <c r="F11" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>77273.698</v>
+        <v>76960.78290000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>77273.698</v>
+        <v>76960.78290000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92304.5178</v>
+        <v>92299.8674</v>
       </c>
       <c r="L11" s="1">
-        <v>14.2844</v>
+        <v>14.3131</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0342</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,49 +1980,49 @@
         <v>12.2036</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E12" s="1">
-        <v>7298.1693</v>
+        <v>7283.2155</v>
       </c>
       <c r="F12" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>89063.93889999999</v>
+        <v>88703.73850000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89063.93889999999</v>
+        <v>88703.73850000001</v>
       </c>
       <c r="K12" s="1">
-        <v>102304.5178</v>
+        <v>102299.8674</v>
       </c>
       <c r="L12" s="1">
-        <v>14.0178</v>
+        <v>14.046</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2326.2948</v>
+        <v>2321.5144</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7673.7052</v>
+        <v>-7678.4856</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>12.9136</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E13" s="1">
-        <v>8117.5996</v>
+        <v>8101.0041</v>
       </c>
       <c r="F13" s="1">
-        <v>954.5204</v>
+        <v>952.2404</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>104827.4346</v>
+        <v>104404.1201</v>
       </c>
       <c r="I13" s="1">
-        <v>2326.2948</v>
+        <v>2321.5144</v>
       </c>
       <c r="J13" s="1">
-        <v>107153.7294</v>
+        <v>106725.6345</v>
       </c>
       <c r="K13" s="1">
-        <v>112304.5178</v>
+        <v>112299.8674</v>
       </c>
       <c r="L13" s="1">
-        <v>13.8347</v>
+        <v>13.8625</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12326.2948</v>
+        <v>-12321.5144</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.08169999999999999</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>13.4338</v>
       </c>
       <c r="C14" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D14" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E14" s="1">
-        <v>9072.120000000001</v>
+        <v>9053.2444</v>
       </c>
       <c r="F14" s="1">
-        <v>-9072.120000000001</v>
+        <v>-9053.2444</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="K14" s="1">
-        <v>124630.8126</v>
+        <v>124621.3818</v>
       </c>
       <c r="L14" s="1">
-        <v>13.7378</v>
+        <v>13.7654</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>16.8894</v>
       </c>
       <c r="C2" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D2" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>16.4004</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E3" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="F3" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>9710.469300000001</v>
+        <v>9671.693300000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9710.469300000001</v>
+        <v>9671.693300000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.029</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>15.3877</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E4" s="1">
-        <v>1201.8286</v>
+        <v>1199.4253</v>
       </c>
       <c r="F4" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18493.3775</v>
+        <v>18419.4544</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18493.3775</v>
+        <v>18419.4544</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.6413</v>
+        <v>16.6747</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0617</v>
+        <v>-0.06370000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>14.6367</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E5" s="1">
-        <v>1851.6983</v>
+        <v>1847.9968</v>
       </c>
       <c r="F5" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>27102.7521</v>
+        <v>26994.4287</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27102.7521</v>
+        <v>26994.4287</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.2013</v>
+        <v>16.2338</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2419,7 +2419,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0488</v>
+        <v>-0.0501</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,49 +2430,49 @@
         <v>13.0061</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D6" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E6" s="1">
-        <v>2534.9124</v>
+        <v>2529.846</v>
       </c>
       <c r="F6" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>32969.324</v>
+        <v>32837.654</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>32969.324</v>
+        <v>32837.654</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>15.7796</v>
+        <v>15.8112</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>833.2642</v>
+        <v>831.5986</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9166.7358</v>
+        <v>-9168.401400000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.1114</v>
+        <v>-0.1124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>13.835</v>
       </c>
       <c r="C7" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D7" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E7" s="1">
-        <v>3303.7824</v>
+        <v>3297.1761</v>
       </c>
       <c r="F7" s="1">
-        <v>783.0332</v>
+        <v>781.3484</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>45707.8292</v>
+        <v>45525.1002</v>
       </c>
       <c r="I7" s="1">
-        <v>833.2642</v>
+        <v>831.5986</v>
       </c>
       <c r="J7" s="1">
-        <v>46541.0934</v>
+        <v>46356.6988</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>15.1342</v>
+        <v>15.1645</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10833.2642</v>
+        <v>-10831.5986</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08309999999999999</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>14.4216</v>
       </c>
       <c r="C8" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D8" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E8" s="1">
-        <v>4086.8156</v>
+        <v>4078.5246</v>
       </c>
       <c r="F8" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>58938.4194</v>
+        <v>58701.3882</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58938.4194</v>
+        <v>58701.3882</v>
       </c>
       <c r="K8" s="1">
-        <v>60833.2642</v>
+        <v>60831.5986</v>
       </c>
       <c r="L8" s="1">
-        <v>14.8852</v>
+        <v>14.9151</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0424</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,49 +2589,49 @@
         <v>13.2404</v>
       </c>
       <c r="C9" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D9" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E9" s="1">
-        <v>4780.2199</v>
+        <v>4770.5421</v>
       </c>
       <c r="F9" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>63292.0237</v>
+        <v>63037.4667</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63292.0237</v>
+        <v>63037.4667</v>
       </c>
       <c r="K9" s="1">
-        <v>70833.26420000001</v>
+        <v>70831.5986</v>
       </c>
       <c r="L9" s="1">
-        <v>14.818</v>
+        <v>14.8477</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1471.2536</v>
+        <v>1468.2688</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8528.7464</v>
+        <v>-8531.7312</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0819</v>
+        <v>-0.0824</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.382</v>
       </c>
       <c r="C10" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D10" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E10" s="1">
-        <v>5535.4841</v>
+        <v>5524.2977</v>
       </c>
       <c r="F10" s="1">
-        <v>926.4459000000001</v>
+        <v>924.3535000000001</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>68540.36410000001</v>
+        <v>68264.8517</v>
       </c>
       <c r="I10" s="1">
-        <v>1471.2536</v>
+        <v>1468.2688</v>
       </c>
       <c r="J10" s="1">
-        <v>70011.6177</v>
+        <v>69733.12059999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80833.26420000001</v>
+        <v>80831.5986</v>
       </c>
       <c r="L10" s="1">
-        <v>14.6027</v>
+        <v>14.632</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11471.2536</v>
+        <v>-11468.2688</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0448</v>
+        <v>-0.0452</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>11.9583</v>
       </c>
       <c r="C11" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D11" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E11" s="1">
-        <v>6461.93</v>
+        <v>6448.6512</v>
       </c>
       <c r="F11" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>77273.698</v>
+        <v>76960.78290000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>77273.698</v>
+        <v>76960.78290000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92304.5178</v>
+        <v>92299.8674</v>
       </c>
       <c r="L11" s="1">
-        <v>14.2844</v>
+        <v>14.3131</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2737,7 +2737,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0342</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,49 +2748,49 @@
         <v>12.2036</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E12" s="1">
-        <v>7298.1693</v>
+        <v>7283.2155</v>
       </c>
       <c r="F12" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>89063.93889999999</v>
+        <v>88703.73850000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89063.93889999999</v>
+        <v>88703.73850000001</v>
       </c>
       <c r="K12" s="1">
-        <v>102304.5178</v>
+        <v>102299.8674</v>
       </c>
       <c r="L12" s="1">
-        <v>14.0178</v>
+        <v>14.046</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2326.2948</v>
+        <v>2321.5144</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7673.7052</v>
+        <v>-7678.4856</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>12.9136</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E13" s="1">
-        <v>8117.5996</v>
+        <v>8101.0041</v>
       </c>
       <c r="F13" s="1">
-        <v>954.5204</v>
+        <v>952.2404</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>104827.4346</v>
+        <v>104404.1201</v>
       </c>
       <c r="I13" s="1">
-        <v>2326.2948</v>
+        <v>2321.5144</v>
       </c>
       <c r="J13" s="1">
-        <v>107153.7294</v>
+        <v>106725.6345</v>
       </c>
       <c r="K13" s="1">
-        <v>112304.5178</v>
+        <v>112299.8674</v>
       </c>
       <c r="L13" s="1">
-        <v>13.8347</v>
+        <v>13.8625</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12326.2948</v>
+        <v>-12321.5144</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.08169999999999999</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>13.4338</v>
       </c>
       <c r="C14" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D14" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E14" s="1">
-        <v>9072.120000000001</v>
+        <v>9053.2444</v>
       </c>
       <c r="F14" s="1">
-        <v>-9072.120000000001</v>
+        <v>-9053.2444</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="K14" s="1">
-        <v>124630.8126</v>
+        <v>124621.3818</v>
       </c>
       <c r="L14" s="1">
-        <v>13.7378</v>
+        <v>13.7654</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>16.8894</v>
       </c>
       <c r="C2" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D2" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>16.4004</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E3" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="F3" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>9710.469300000001</v>
+        <v>9671.693300000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9710.469300000001</v>
+        <v>9671.693300000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.029</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>15.3877</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E4" s="1">
-        <v>1201.8286</v>
+        <v>1199.4253</v>
       </c>
       <c r="F4" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>18493.3775</v>
+        <v>18419.4544</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18493.3775</v>
+        <v>18419.4544</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.6413</v>
+        <v>16.6747</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3134,7 +3134,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0617</v>
+        <v>-0.06370000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>14.6367</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E5" s="1">
-        <v>1851.6983</v>
+        <v>1847.9968</v>
       </c>
       <c r="F5" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>27102.7521</v>
+        <v>26994.4287</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27102.7521</v>
+        <v>26994.4287</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.2013</v>
+        <v>16.2338</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0488</v>
+        <v>-0.0501</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,49 +3198,49 @@
         <v>13.0061</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D6" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E6" s="1">
-        <v>2534.9124</v>
+        <v>2529.846</v>
       </c>
       <c r="F6" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>32969.324</v>
+        <v>32837.654</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>32969.324</v>
+        <v>32837.654</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>15.7796</v>
+        <v>15.8112</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>833.2642</v>
+        <v>831.5986</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9166.7358</v>
+        <v>-9168.401400000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.1114</v>
+        <v>-0.1124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>13.835</v>
       </c>
       <c r="C7" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D7" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E7" s="1">
-        <v>3303.7824</v>
+        <v>3297.1761</v>
       </c>
       <c r="F7" s="1">
-        <v>783.0332</v>
+        <v>781.3484</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>45707.8292</v>
+        <v>45525.1002</v>
       </c>
       <c r="I7" s="1">
-        <v>833.2642</v>
+        <v>831.5986</v>
       </c>
       <c r="J7" s="1">
-        <v>46541.0934</v>
+        <v>46356.6988</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>15.1342</v>
+        <v>15.1645</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10833.2642</v>
+        <v>-10831.5986</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08309999999999999</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>14.4216</v>
       </c>
       <c r="C8" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D8" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E8" s="1">
-        <v>4086.8156</v>
+        <v>4078.5246</v>
       </c>
       <c r="F8" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>58938.4194</v>
+        <v>58701.3882</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58938.4194</v>
+        <v>58701.3882</v>
       </c>
       <c r="K8" s="1">
-        <v>60833.2642</v>
+        <v>60831.5986</v>
       </c>
       <c r="L8" s="1">
-        <v>14.8852</v>
+        <v>14.9151</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3346,7 +3346,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0424</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,49 +3357,49 @@
         <v>13.2404</v>
       </c>
       <c r="C9" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D9" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E9" s="1">
-        <v>4780.2199</v>
+        <v>4770.5421</v>
       </c>
       <c r="F9" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>63292.0237</v>
+        <v>63037.4667</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63292.0237</v>
+        <v>63037.4667</v>
       </c>
       <c r="K9" s="1">
-        <v>70833.26420000001</v>
+        <v>70831.5986</v>
       </c>
       <c r="L9" s="1">
-        <v>14.818</v>
+        <v>14.8477</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1471.2536</v>
+        <v>1468.2688</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8528.7464</v>
+        <v>-8531.7312</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0819</v>
+        <v>-0.0824</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.382</v>
       </c>
       <c r="C10" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D10" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E10" s="1">
-        <v>5535.4841</v>
+        <v>5524.2977</v>
       </c>
       <c r="F10" s="1">
-        <v>926.4459000000001</v>
+        <v>924.3535000000001</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>68540.36410000001</v>
+        <v>68264.8517</v>
       </c>
       <c r="I10" s="1">
-        <v>1471.2536</v>
+        <v>1468.2688</v>
       </c>
       <c r="J10" s="1">
-        <v>70011.6177</v>
+        <v>69733.12059999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80833.26420000001</v>
+        <v>80831.5986</v>
       </c>
       <c r="L10" s="1">
-        <v>14.6027</v>
+        <v>14.632</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11471.2536</v>
+        <v>-11468.2688</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0448</v>
+        <v>-0.0452</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>11.9583</v>
       </c>
       <c r="C11" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D11" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E11" s="1">
-        <v>6461.93</v>
+        <v>6448.6512</v>
       </c>
       <c r="F11" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>77273.698</v>
+        <v>76960.78290000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>77273.698</v>
+        <v>76960.78290000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92304.5178</v>
+        <v>92299.8674</v>
       </c>
       <c r="L11" s="1">
-        <v>14.2844</v>
+        <v>14.3131</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3505,7 +3505,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0342</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,49 +3516,49 @@
         <v>12.2036</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E12" s="1">
-        <v>7298.1693</v>
+        <v>7283.2155</v>
       </c>
       <c r="F12" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>89063.93889999999</v>
+        <v>88703.73850000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89063.93889999999</v>
+        <v>88703.73850000001</v>
       </c>
       <c r="K12" s="1">
-        <v>102304.5178</v>
+        <v>102299.8674</v>
       </c>
       <c r="L12" s="1">
-        <v>14.0178</v>
+        <v>14.046</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2326.2948</v>
+        <v>2321.5144</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7673.7052</v>
+        <v>-7678.4856</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>12.9136</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E13" s="1">
-        <v>8117.5996</v>
+        <v>8101.0041</v>
       </c>
       <c r="F13" s="1">
-        <v>954.5204</v>
+        <v>952.2404</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>104827.4346</v>
+        <v>104404.1201</v>
       </c>
       <c r="I13" s="1">
-        <v>2326.2948</v>
+        <v>2321.5144</v>
       </c>
       <c r="J13" s="1">
-        <v>107153.7294</v>
+        <v>106725.6345</v>
       </c>
       <c r="K13" s="1">
-        <v>112304.5178</v>
+        <v>112299.8674</v>
       </c>
       <c r="L13" s="1">
-        <v>13.8347</v>
+        <v>13.8625</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12326.2948</v>
+        <v>-12321.5144</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.08169999999999999</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>13.4338</v>
       </c>
       <c r="C14" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D14" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E14" s="1">
-        <v>9072.120000000001</v>
+        <v>9053.2444</v>
       </c>
       <c r="F14" s="1">
-        <v>-9072.120000000001</v>
+        <v>-9053.2444</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="K14" s="1">
-        <v>124630.8126</v>
+        <v>124621.3818</v>
       </c>
       <c r="L14" s="1">
-        <v>13.7378</v>
+        <v>13.7654</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>16.8894</v>
       </c>
       <c r="C2" s="1">
-        <v>16.8893</v>
+        <v>16.8556</v>
       </c>
       <c r="D2" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>16.4004</v>
       </c>
       <c r="C3" s="1">
-        <v>16.4004</v>
+        <v>16.3676</v>
       </c>
       <c r="D3" s="1">
-        <v>16.4004</v>
+        <v>16.4333</v>
       </c>
       <c r="E3" s="1">
-        <v>592.0873</v>
+        <v>590.9048</v>
       </c>
       <c r="F3" s="1">
-        <v>609.7412</v>
+        <v>608.5205</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>9710.469300000001</v>
+        <v>9671.693300000001</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>9710.469300000001</v>
+        <v>9671.693300000001</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>16.8894</v>
+        <v>16.9232</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3849,7 +3849,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>-0.029</v>
+        <v>-0.0328</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>15.3877</v>
       </c>
       <c r="C4" s="1">
-        <v>15.3877</v>
+        <v>15.3569</v>
       </c>
       <c r="D4" s="1">
-        <v>15.3877</v>
+        <v>15.4185</v>
       </c>
       <c r="E4" s="1">
-        <v>1201.8286</v>
+        <v>1199.4253</v>
       </c>
       <c r="F4" s="1">
-        <v>649.8697</v>
+        <v>648.5715</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>18493.3775</v>
+        <v>18419.4544</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>18493.3775</v>
+        <v>18419.4544</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>16.6413</v>
+        <v>16.6747</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3902,7 +3902,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0617</v>
+        <v>-0.06370000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>14.6367</v>
       </c>
       <c r="C5" s="1">
-        <v>14.6367</v>
+        <v>14.6074</v>
       </c>
       <c r="D5" s="1">
-        <v>14.6367</v>
+        <v>14.666</v>
       </c>
       <c r="E5" s="1">
-        <v>1851.6983</v>
+        <v>1847.9968</v>
       </c>
       <c r="F5" s="1">
-        <v>683.2141</v>
+        <v>681.8492</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>27102.7521</v>
+        <v>26994.4287</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>27102.7521</v>
+        <v>26994.4287</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>16.2013</v>
+        <v>16.2338</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>-10000</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.0488</v>
+        <v>-0.0501</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,49 +3966,49 @@
         <v>13.0061</v>
       </c>
       <c r="C6" s="1">
-        <v>13.0061</v>
+        <v>12.9801</v>
       </c>
       <c r="D6" s="1">
-        <v>13.0061</v>
+        <v>13.0322</v>
       </c>
       <c r="E6" s="1">
-        <v>2534.9124</v>
+        <v>2529.846</v>
       </c>
       <c r="F6" s="1">
-        <v>768.87</v>
+        <v>767.3302</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>32969.324</v>
+        <v>32837.654</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>32969.324</v>
+        <v>32837.654</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>15.7796</v>
+        <v>15.8112</v>
       </c>
       <c r="M6" s="1">
         <v>0.5</v>
       </c>
       <c r="N6" s="1">
-        <v>833.2642</v>
+        <v>831.5986</v>
       </c>
       <c r="O6" s="1">
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-9166.7358</v>
+        <v>-9168.401400000001</v>
       </c>
       <c r="Q6" s="3">
-        <v>-0.1114</v>
+        <v>-0.1124</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>13.835</v>
       </c>
       <c r="C7" s="1">
-        <v>13.835</v>
+        <v>13.8073</v>
       </c>
       <c r="D7" s="1">
-        <v>13.835</v>
+        <v>13.8627</v>
       </c>
       <c r="E7" s="1">
-        <v>3303.7824</v>
+        <v>3297.1761</v>
       </c>
       <c r="F7" s="1">
-        <v>783.0332</v>
+        <v>781.3484</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>45707.8292</v>
+        <v>45525.1002</v>
       </c>
       <c r="I7" s="1">
-        <v>833.2642</v>
+        <v>831.5986</v>
       </c>
       <c r="J7" s="1">
-        <v>46541.0934</v>
+        <v>46356.6988</v>
       </c>
       <c r="K7" s="1">
         <v>50000</v>
       </c>
       <c r="L7" s="1">
-        <v>15.1342</v>
+        <v>15.1645</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10833.2642</v>
+        <v>-10831.5986</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.08309999999999999</v>
+        <v>0.08210000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>14.4216</v>
       </c>
       <c r="C8" s="1">
-        <v>14.4216</v>
+        <v>14.3928</v>
       </c>
       <c r="D8" s="1">
-        <v>14.4216</v>
+        <v>14.4505</v>
       </c>
       <c r="E8" s="1">
-        <v>4086.8156</v>
+        <v>4078.5246</v>
       </c>
       <c r="F8" s="1">
-        <v>693.4043</v>
+        <v>692.0176</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>58938.4194</v>
+        <v>58701.3882</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
       </c>
       <c r="J8" s="1">
-        <v>58938.4194</v>
+        <v>58701.3882</v>
       </c>
       <c r="K8" s="1">
-        <v>60833.2642</v>
+        <v>60831.5986</v>
       </c>
       <c r="L8" s="1">
-        <v>14.8852</v>
+        <v>14.9151</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>-10000</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0424</v>
+        <v>0.0416</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,49 +4125,49 @@
         <v>13.2404</v>
       </c>
       <c r="C9" s="1">
-        <v>13.2404</v>
+        <v>13.2139</v>
       </c>
       <c r="D9" s="1">
-        <v>13.2404</v>
+        <v>13.2669</v>
       </c>
       <c r="E9" s="1">
-        <v>4780.2199</v>
+        <v>4770.5421</v>
       </c>
       <c r="F9" s="1">
-        <v>755.2642</v>
+        <v>753.7556</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>63292.0237</v>
+        <v>63037.4667</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>63292.0237</v>
+        <v>63037.4667</v>
       </c>
       <c r="K9" s="1">
-        <v>70833.26420000001</v>
+        <v>70831.5986</v>
       </c>
       <c r="L9" s="1">
-        <v>14.818</v>
+        <v>14.8477</v>
       </c>
       <c r="M9" s="1">
         <v>0.4</v>
       </c>
       <c r="N9" s="1">
-        <v>1471.2536</v>
+        <v>1468.2688</v>
       </c>
       <c r="O9" s="1">
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-8528.7464</v>
+        <v>-8531.7312</v>
       </c>
       <c r="Q9" s="3">
-        <v>-0.0819</v>
+        <v>-0.0824</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.382</v>
       </c>
       <c r="C10" s="1">
-        <v>12.382</v>
+        <v>12.3572</v>
       </c>
       <c r="D10" s="1">
-        <v>12.382</v>
+        <v>12.4068</v>
       </c>
       <c r="E10" s="1">
-        <v>5535.4841</v>
+        <v>5524.2977</v>
       </c>
       <c r="F10" s="1">
-        <v>926.4459000000001</v>
+        <v>924.3535000000001</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>68540.36410000001</v>
+        <v>68264.8517</v>
       </c>
       <c r="I10" s="1">
-        <v>1471.2536</v>
+        <v>1468.2688</v>
       </c>
       <c r="J10" s="1">
-        <v>70011.6177</v>
+        <v>69733.12059999999</v>
       </c>
       <c r="K10" s="1">
-        <v>80833.26420000001</v>
+        <v>80831.5986</v>
       </c>
       <c r="L10" s="1">
-        <v>14.6027</v>
+        <v>14.632</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-11471.2536</v>
+        <v>-11468.2688</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0448</v>
+        <v>-0.0452</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>11.9583</v>
       </c>
       <c r="C11" s="1">
-        <v>11.9583</v>
+        <v>11.9344</v>
       </c>
       <c r="D11" s="1">
-        <v>11.9583</v>
+        <v>11.9823</v>
       </c>
       <c r="E11" s="1">
-        <v>6461.93</v>
+        <v>6448.6512</v>
       </c>
       <c r="F11" s="1">
-        <v>836.2393</v>
+        <v>834.5643</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>77273.698</v>
+        <v>76960.78290000001</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>77273.698</v>
+        <v>76960.78290000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92304.5178</v>
+        <v>92299.8674</v>
       </c>
       <c r="L11" s="1">
-        <v>14.2844</v>
+        <v>14.3131</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>-10000</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0342</v>
+        <v>-0.0348</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,49 +4284,49 @@
         <v>12.2036</v>
       </c>
       <c r="C12" s="1">
-        <v>12.2036</v>
+        <v>12.1792</v>
       </c>
       <c r="D12" s="1">
-        <v>12.2036</v>
+        <v>12.2281</v>
       </c>
       <c r="E12" s="1">
-        <v>7298.1693</v>
+        <v>7283.2155</v>
       </c>
       <c r="F12" s="1">
-        <v>819.4303</v>
+        <v>817.7885</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>89063.93889999999</v>
+        <v>88703.73850000001</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
       </c>
       <c r="J12" s="1">
-        <v>89063.93889999999</v>
+        <v>88703.73850000001</v>
       </c>
       <c r="K12" s="1">
-        <v>102304.5178</v>
+        <v>102299.8674</v>
       </c>
       <c r="L12" s="1">
-        <v>14.0178</v>
+        <v>14.046</v>
       </c>
       <c r="M12" s="1">
         <v>0.4</v>
       </c>
       <c r="N12" s="1">
-        <v>2326.2948</v>
+        <v>2321.5144</v>
       </c>
       <c r="O12" s="1">
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7673.7052</v>
+        <v>-7678.4856</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0205</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>12.9136</v>
       </c>
       <c r="C13" s="1">
-        <v>12.9136</v>
+        <v>12.8878</v>
       </c>
       <c r="D13" s="1">
-        <v>12.9136</v>
+        <v>12.9395</v>
       </c>
       <c r="E13" s="1">
-        <v>8117.5996</v>
+        <v>8101.0041</v>
       </c>
       <c r="F13" s="1">
-        <v>954.5204</v>
+        <v>952.2404</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>104827.4346</v>
+        <v>104404.1201</v>
       </c>
       <c r="I13" s="1">
-        <v>2326.2948</v>
+        <v>2321.5144</v>
       </c>
       <c r="J13" s="1">
-        <v>107153.7294</v>
+        <v>106725.6345</v>
       </c>
       <c r="K13" s="1">
-        <v>112304.5178</v>
+        <v>112299.8674</v>
       </c>
       <c r="L13" s="1">
-        <v>13.8347</v>
+        <v>13.8625</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12326.2948</v>
+        <v>-12321.5144</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.08169999999999999</v>
+        <v>0.0813</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>13.4338</v>
       </c>
       <c r="C14" s="1">
-        <v>13.4338</v>
+        <v>13.4069</v>
       </c>
       <c r="D14" s="1">
-        <v>13.4338</v>
+        <v>13.4607</v>
       </c>
       <c r="E14" s="1">
-        <v>9072.120000000001</v>
+        <v>9053.2444</v>
       </c>
       <c r="F14" s="1">
-        <v>-9072.120000000001</v>
+        <v>-9053.2444</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="I14" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="K14" s="1">
-        <v>124630.8126</v>
+        <v>124621.3818</v>
       </c>
       <c r="L14" s="1">
-        <v>13.7378</v>
+        <v>13.7654</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121873.0463</v>
+        <v>121375.9429</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0403</v>
+        <v>0.0398</v>
       </c>
     </row>
   </sheetData>
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.7316</v>
+        <v>13.7592</v>
       </c>
       <c r="D3" s="1">
-        <v>13.7378</v>
+        <v>13.7654</v>
       </c>
       <c r="E3" s="1">
-        <v>13.7378</v>
+        <v>13.7654</v>
       </c>
       <c r="F3" s="1">
-        <v>13.7378</v>
+        <v>13.7654</v>
       </c>
       <c r="G3" s="1">
-        <v>13.7378</v>
+        <v>13.7654</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>-0.2068</v>
       </c>
       <c r="C4" s="3">
-        <v>-0.1438</v>
+        <v>-0.1565</v>
       </c>
       <c r="D4" s="3">
-        <v>-0.1438</v>
+        <v>-0.1565</v>
       </c>
       <c r="E4" s="3">
-        <v>-0.1438</v>
+        <v>-0.1565</v>
       </c>
       <c r="F4" s="3">
-        <v>-0.1438</v>
+        <v>-0.1565</v>
       </c>
       <c r="G4" s="3">
-        <v>-0.1438</v>
+        <v>-0.1565</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.1981</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2114</v>
+        <v>0.2122</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2122</v>
+        <v>0.213</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2122</v>
+        <v>0.213</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2122</v>
+        <v>0.213</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2122</v>
+        <v>0.213</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>-1.1462</v>
       </c>
       <c r="C6" s="4">
-        <v>-0.7764</v>
+        <v>-0.8335</v>
       </c>
       <c r="D6" s="4">
-        <v>-0.7735</v>
+        <v>-0.8305</v>
       </c>
       <c r="E6" s="4">
-        <v>-0.7735</v>
+        <v>-0.8305</v>
       </c>
       <c r="F6" s="4">
-        <v>-0.7735</v>
+        <v>-0.8305</v>
       </c>
       <c r="G6" s="4">
-        <v>-0.7735</v>
+        <v>-0.8305</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.0292</v>
+        <v>0.0214</v>
       </c>
       <c r="D7" s="3">
-        <v>0.0291</v>
+        <v>0.0214</v>
       </c>
       <c r="E7" s="3">
-        <v>0.0291</v>
+        <v>0.0214</v>
       </c>
       <c r="F7" s="3">
-        <v>0.0291</v>
+        <v>0.0214</v>
       </c>
       <c r="G7" s="3">
-        <v>0.0291</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>4571.0949</v>
+        <v>4561.9038</v>
       </c>
       <c r="D8" s="1">
-        <v>4630.8126</v>
+        <v>4621.3818</v>
       </c>
       <c r="E8" s="1">
-        <v>4630.8126</v>
+        <v>4621.3818</v>
       </c>
       <c r="F8" s="1">
-        <v>4630.8126</v>
+        <v>4621.3818</v>
       </c>
       <c r="G8" s="1">
-        <v>4630.8126</v>
+        <v>4621.3818</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P50_KFSDIV.xlsx
+++ b/output/1Y_P50_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>5501.1796</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.9749</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.9743000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.9743000000000001</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0.9743000000000001</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.9743000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
